--- a/Tables/did_reg_sal.xlsx
+++ b/Tables/did_reg_sal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBBA14-93B0-484A-B379-AC95F2E8EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA7698-A8AC-4049-AD0D-A9B1E261B99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{815B6133-4195-43DD-B1EB-E29E965718EE}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{815B6133-4195-43DD-B1EB-E29E965718EE}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_sal_bc" sheetId="2" r:id="rId1"/>
@@ -236,13 +236,13 @@
         </row>
         <row r="5">
           <cell r="D5" t="str">
-            <v>0.033**</v>
+            <v>0.027*</v>
           </cell>
           <cell r="E5" t="str">
             <v>0.028*</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.031*</v>
+            <v>-0.024</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.026</v>
@@ -262,7 +262,7 @@
         </row>
         <row r="6">
           <cell r="D6" t="str">
-            <v>(0.016)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="E6" t="str">
             <v>(0.015)</v>
@@ -288,19 +288,19 @@
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>0.017*</v>
+            <v>0.014</v>
           </cell>
           <cell r="E8" t="str">
             <v>0.015</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.013</v>
+            <v>-0.0094</v>
           </cell>
           <cell r="G8" t="str">
             <v>-0.014</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.053</v>
+            <v>-0.052</v>
           </cell>
           <cell r="I8" t="str">
             <v>-0.026</v>
@@ -314,13 +314,13 @@
         </row>
         <row r="9">
           <cell r="D9" t="str">
-            <v>(0.0095)</v>
+            <v>(0.0091)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(0.011)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0088)</v>
+            <v>(0.0084)</v>
           </cell>
           <cell r="G9" t="str">
             <v>(0.0093)</v>
@@ -332,7 +332,7 @@
             <v>(0.044)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(0.062)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="K9" t="str">
             <v>(0.061)</v>
@@ -340,13 +340,13 @@
         </row>
         <row r="11">
           <cell r="D11" t="str">
-            <v>0.010*</v>
+            <v>0.0086</v>
           </cell>
           <cell r="E11" t="str">
             <v>0.0099</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.0024</v>
+            <v>-0.0013</v>
           </cell>
           <cell r="G11" t="str">
             <v>-0.0011</v>
@@ -358,7 +358,7 @@
             <v>0.0017</v>
           </cell>
           <cell r="J11" t="str">
-            <v>-0.090***</v>
+            <v>-0.091***</v>
           </cell>
           <cell r="K11" t="str">
             <v>-0.079**</v>
@@ -366,13 +366,13 @@
         </row>
         <row r="12">
           <cell r="D12" t="str">
-            <v>(0.0058)</v>
+            <v>(0.0055)</v>
           </cell>
           <cell r="E12" t="str">
             <v>(0.0065)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(0.0051)</v>
+            <v>(0.0049)</v>
           </cell>
           <cell r="G12" t="str">
             <v>(0.0055)</v>
@@ -384,7 +384,7 @@
             <v>(0.025)</v>
           </cell>
           <cell r="J12" t="str">
-            <v>(0.034)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="K12" t="str">
             <v>(0.034)</v>
@@ -392,25 +392,25 @@
         </row>
         <row r="14">
           <cell r="D14" t="str">
-            <v>-0.012**</v>
+            <v>-0.011*</v>
           </cell>
           <cell r="E14" t="str">
             <v>-0.014*</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.0087</v>
+            <v>-0.011</v>
           </cell>
           <cell r="G14" t="str">
             <v>-0.0026</v>
           </cell>
           <cell r="H14" t="str">
-            <v>0.030</v>
+            <v>0.032</v>
           </cell>
           <cell r="I14" t="str">
             <v>0.023</v>
           </cell>
           <cell r="J14" t="str">
-            <v>0.074**</v>
+            <v>0.075**</v>
           </cell>
           <cell r="K14" t="str">
             <v>0.053</v>
@@ -424,7 +424,7 @@
             <v>(0.0076)</v>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.0072)</v>
+            <v>(0.0070)</v>
           </cell>
           <cell r="G15" t="str">
             <v>(0.0087)</v>
@@ -444,19 +444,19 @@
         </row>
         <row r="17">
           <cell r="D17" t="str">
-            <v>-0.017*</v>
+            <v>-0.013</v>
           </cell>
           <cell r="E17" t="str">
             <v>-0.016</v>
           </cell>
           <cell r="F17" t="str">
-            <v>-0.0080</v>
+            <v>-0.010</v>
           </cell>
           <cell r="G17" t="str">
             <v>0.0037</v>
           </cell>
           <cell r="H17" t="str">
-            <v>0.055</v>
+            <v>0.059</v>
           </cell>
           <cell r="I17" t="str">
             <v>0.048</v>
@@ -470,13 +470,13 @@
         </row>
         <row r="18">
           <cell r="D18" t="str">
-            <v>(0.0087)</v>
+            <v>(0.0085)</v>
           </cell>
           <cell r="E18" t="str">
             <v>(0.011)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0095)</v>
+            <v>(0.0093)</v>
           </cell>
           <cell r="G18" t="str">
             <v>(0.012)</v>
@@ -496,19 +496,19 @@
         </row>
         <row r="20">
           <cell r="D20" t="str">
-            <v>-0.020*</v>
+            <v>-0.016</v>
           </cell>
           <cell r="E20" t="str">
             <v>-0.012</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.016</v>
+            <v>-0.017</v>
           </cell>
           <cell r="G20" t="str">
             <v>0.0038</v>
           </cell>
           <cell r="H20" t="str">
-            <v>0.079</v>
+            <v>0.082</v>
           </cell>
           <cell r="I20" t="str">
             <v>0.081</v>
@@ -548,7 +548,7 @@
         </row>
         <row r="23">
           <cell r="D23" t="str">
-            <v>-0.024</v>
+            <v>-0.018</v>
           </cell>
           <cell r="E23" t="str">
             <v>-0.0044</v>
@@ -560,7 +560,7 @@
             <v>0.0073</v>
           </cell>
           <cell r="H23" t="str">
-            <v>0.091</v>
+            <v>0.095</v>
           </cell>
           <cell r="I23" t="str">
             <v>0.091</v>
@@ -600,19 +600,19 @@
         </row>
         <row r="26">
           <cell r="D26" t="str">
-            <v>-0.026</v>
+            <v>-0.022</v>
           </cell>
           <cell r="E26" t="str">
             <v>-0.0033</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.028*</v>
+            <v>-0.024*</v>
           </cell>
           <cell r="G26" t="str">
             <v>-0.00025</v>
           </cell>
           <cell r="H26" t="str">
-            <v>0.078</v>
+            <v>0.082</v>
           </cell>
           <cell r="I26" t="str">
             <v>0.100</v>
@@ -635,7 +635,7 @@
             <v>(0.021)</v>
           </cell>
           <cell r="F27" t="str">
-            <v>(0.015)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="G27" t="str">
             <v>(0.017)</v>
@@ -655,25 +655,25 @@
         </row>
         <row r="29">
           <cell r="D29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="E29" t="str">
             <v>73944</v>
           </cell>
           <cell r="F29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="G29" t="str">
             <v>73944</v>
           </cell>
           <cell r="H29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="I29" t="str">
             <v>73944</v>
           </cell>
           <cell r="J29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="K29" t="str">
             <v>73944</v>
@@ -684,13 +684,13 @@
             <v>R-sq</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.481</v>
+            <v>0.497</v>
           </cell>
           <cell r="E30" t="str">
             <v>0.350</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.663</v>
+            <v>0.718</v>
           </cell>
           <cell r="G30" t="str">
             <v>0.471</v>
@@ -713,25 +713,25 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="D31" t="str">
-            <v>4.12</v>
+            <v>4.13</v>
           </cell>
           <cell r="E31" t="str">
             <v>3.97</v>
           </cell>
           <cell r="F31" t="str">
-            <v>5.03</v>
+            <v>5.06</v>
           </cell>
           <cell r="G31" t="str">
             <v>4.90</v>
           </cell>
           <cell r="H31" t="str">
-            <v>3.94</v>
+            <v>3.99</v>
           </cell>
           <cell r="I31" t="str">
             <v>3.65</v>
           </cell>
           <cell r="J31" t="str">
-            <v>2.60</v>
+            <v>2.64</v>
           </cell>
           <cell r="K31" t="str">
             <v>2.39</v>
@@ -739,25 +739,25 @@
         </row>
         <row r="32">
           <cell r="D32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="E32" t="str">
             <v>1699</v>
           </cell>
           <cell r="F32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="G32" t="str">
             <v>1699</v>
           </cell>
           <cell r="H32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="I32" t="str">
             <v>1699</v>
           </cell>
           <cell r="J32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="K32" t="str">
             <v>1699</v>
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4781F8-0889-4BE0-A069-88109DEF4A1E}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]did_reg_sal!D5</f>
-        <v>0.033**</v>
+        <v>0.027*</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]did_reg_sal!F5</f>
-        <v>-0.031*</v>
+        <v>-0.024</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>[1]did_reg_sal!H5</f>
@@ -1154,7 +1154,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="str">
         <f>[1]did_reg_sal!D6</f>
-        <v>(0.016)</v>
+        <v>(0.015)</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]did_reg_sal!F6</f>
@@ -1175,15 +1175,15 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>[1]did_reg_sal!D8</f>
-        <v>0.017*</v>
+        <v>0.014</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>[1]did_reg_sal!F8</f>
-        <v>-0.013</v>
+        <v>-0.0094</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>[1]did_reg_sal!H8</f>
-        <v>-0.053</v>
+        <v>-0.052</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>[1]did_reg_sal!J8</f>
@@ -1193,11 +1193,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="str">
         <f>[1]did_reg_sal!D9</f>
-        <v>(0.0095)</v>
+        <v>(0.0091)</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]did_reg_sal!F9</f>
-        <v>(0.0088)</v>
+        <v>(0.0084)</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>[1]did_reg_sal!H9</f>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E8" s="2" t="str">
         <f>[1]did_reg_sal!J9</f>
-        <v>(0.062)</v>
+        <v>(0.063)</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]did_reg_sal!D11</f>
-        <v>0.010*</v>
+        <v>0.0086</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]did_reg_sal!F11</f>
-        <v>-0.0024</v>
+        <v>-0.0013</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>[1]did_reg_sal!H11</f>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="E9" s="2" t="str">
         <f>[1]did_reg_sal!J11</f>
-        <v>-0.090***</v>
+        <v>-0.091***</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="str">
         <f>[1]did_reg_sal!D12</f>
-        <v>(0.0058)</v>
+        <v>(0.0055)</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]did_reg_sal!F12</f>
-        <v>(0.0051)</v>
+        <v>(0.0049)</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>[1]did_reg_sal!H12</f>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E10" s="2" t="str">
         <f>[1]did_reg_sal!J12</f>
-        <v>(0.034)</v>
+        <v>(0.035)</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1253,19 +1253,19 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>[1]did_reg_sal!D14</f>
-        <v>-0.012**</v>
+        <v>-0.011*</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>[1]did_reg_sal!F14</f>
-        <v>-0.0087</v>
+        <v>-0.011</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>[1]did_reg_sal!H14</f>
-        <v>0.030</v>
+        <v>0.032</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>[1]did_reg_sal!J14</f>
-        <v>0.074**</v>
+        <v>0.075**</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C13" s="2" t="str">
         <f>[1]did_reg_sal!F15</f>
-        <v>(0.0072)</v>
+        <v>(0.0070)</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>[1]did_reg_sal!H15</f>
@@ -1292,15 +1292,15 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>[1]did_reg_sal!D17</f>
-        <v>-0.017*</v>
+        <v>-0.013</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[1]did_reg_sal!F17</f>
-        <v>-0.0080</v>
+        <v>-0.010</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>[1]did_reg_sal!H17</f>
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>[1]did_reg_sal!J17</f>
@@ -1310,11 +1310,11 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="str">
         <f>[1]did_reg_sal!D18</f>
-        <v>(0.0087)</v>
+        <v>(0.0085)</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>[1]did_reg_sal!F18</f>
-        <v>(0.0095)</v>
+        <v>(0.0093)</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>[1]did_reg_sal!H18</f>
@@ -1331,15 +1331,15 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>[1]did_reg_sal!D20</f>
-        <v>-0.020*</v>
+        <v>-0.016</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>[1]did_reg_sal!F20</f>
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>[1]did_reg_sal!H20</f>
-        <v>0.079</v>
+        <v>0.082</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>[1]did_reg_sal!J20</f>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]did_reg_sal!D23</f>
-        <v>-0.024</v>
+        <v>-0.018</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>[1]did_reg_sal!F23</f>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D18" s="2" t="str">
         <f>[1]did_reg_sal!H23</f>
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>[1]did_reg_sal!J23</f>
@@ -1409,15 +1409,15 @@
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]did_reg_sal!D26</f>
-        <v>-0.026</v>
+        <v>-0.022</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>[1]did_reg_sal!F26</f>
-        <v>-0.028*</v>
+        <v>-0.024*</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>[1]did_reg_sal!H26</f>
-        <v>0.078</v>
+        <v>0.082</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>[1]did_reg_sal!J26</f>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C21" s="2" t="str">
         <f>[1]did_reg_sal!F27</f>
-        <v>(0.015)</v>
+        <v>(0.014)</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>[1]did_reg_sal!H27</f>
@@ -1451,19 +1451,19 @@
       </c>
       <c r="B23" s="7" t="str">
         <f>[1]did_reg_sal!D29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>[1]did_reg_sal!F29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>[1]did_reg_sal!H29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>[1]did_reg_sal!J29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1472,19 +1472,19 @@
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]did_reg_sal!D32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>[1]did_reg_sal!F32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>[1]did_reg_sal!H32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>[1]did_reg_sal!J32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1493,11 +1493,11 @@
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]did_reg_sal!D30</f>
-        <v>0.481</v>
+        <v>0.497</v>
       </c>
       <c r="C25" s="2" t="str">
         <f>[1]did_reg_sal!F30</f>
-        <v>0.663</v>
+        <v>0.718</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>[1]did_reg_sal!H30</f>
@@ -1514,19 +1514,19 @@
       </c>
       <c r="B26" s="8" t="str">
         <f>[1]did_reg_sal!D31</f>
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="C26" s="8" t="str">
         <f>[1]did_reg_sal!F31</f>
-        <v>5.03</v>
+        <v>5.06</v>
       </c>
       <c r="D26" s="8" t="str">
         <f>[1]did_reg_sal!H31</f>
-        <v>3.94</v>
+        <v>3.99</v>
       </c>
       <c r="E26" s="8" t="str">
         <f>[1]did_reg_sal!J31</f>
-        <v>2.60</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF83CE85-D806-4DF9-B7B5-6ED2063E15B3}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E27"/>
     </sheetView>
   </sheetViews>
